--- a/B_사업자_휴폐업_조회/File/사업자등록상태조회.xlsx
+++ b/B_사업자_휴폐업_조회/File/사업자등록상태조회.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F9E1C-B9A4-4AEB-A708-A7AC1A2A6919}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E58C9-9425-4EDA-B179-C61C9A49F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사업자휴폐업조회" sheetId="1" r:id="rId1"/>
@@ -15,43 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>사업자등록번호</t>
   </si>
   <si>
-    <t>1010540144</t>
-  </si>
-  <si>
-    <t>1010863774</t>
-  </si>
-  <si>
-    <t>1011127195</t>
-  </si>
-  <si>
-    <t>1011230533</t>
-  </si>
-  <si>
-    <t>1011268892</t>
-  </si>
-  <si>
-    <t>1011275340</t>
-  </si>
-  <si>
-    <t>1011652137</t>
-  </si>
-  <si>
-    <t>1012151049</t>
-  </si>
-  <si>
     <t>1020361041</t>
-  </si>
-  <si>
-    <t>1021551153</t>
-  </si>
-  <si>
-    <t>1010421228</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록상태</t>
@@ -62,12 +31,15 @@
   <si>
     <t>조회일자</t>
   </si>
+  <si>
+    <t>8996300123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,9 +481,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.75" style="2" bestFit="1" customWidth="1"/>
@@ -520,21 +494,21 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>8995800075</v>
       </c>
@@ -542,234 +516,182 @@
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>8996300123</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <v>8997600079</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>8997700057</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1010575871</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8">
-        <v>1010269515</v>
-      </c>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8">
-        <v>1010278881</v>
-      </c>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8">
-        <v>1010292807</v>
-      </c>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8">
-        <v>1010372583</v>
-      </c>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8">
-        <v>1010406872</v>
-      </c>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
       <c r="B20" s="7"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8">
-        <v>1010417419</v>
-      </c>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
       <c r="B21" s="7"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8">
-        <v>1010424211</v>
-      </c>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8">
-        <v>1010425563</v>
-      </c>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8">
-        <v>1010487268</v>
-      </c>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8">
-        <v>1010388483</v>
-      </c>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8">
-        <v>1010498936</v>
-      </c>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
       <c r="B27" s="7"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8">
-        <v>1010533492</v>
-      </c>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8">
-        <v>1010535618</v>
-      </c>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8">
-        <v>1010560738</v>
-      </c>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8">
-        <v>1010575871</v>
-      </c>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="10"/>

--- a/B_사업자_휴폐업_조회/File/사업자등록상태조회.xlsx
+++ b/B_사업자_휴폐업_조회/File/사업자등록상태조회.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E58C9-9425-4EDA-B179-C61C9A49F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE1D733-1097-4A79-A852-B3A98E41EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>사업자등록번호</t>
   </si>
   <si>
-    <t>1020361041</t>
-  </si>
-  <si>
     <t>사업자등록상태</t>
   </si>
   <si>
@@ -32,7 +29,61 @@
     <t>조회일자</t>
   </si>
   <si>
-    <t>8996300123</t>
+    <t>8995800075</t>
+  </si>
+  <si>
+    <t>8997600079</t>
+  </si>
+  <si>
+    <t>8997700057</t>
+  </si>
+  <si>
+    <t>1010269515</t>
+  </si>
+  <si>
+    <t>1010278881</t>
+  </si>
+  <si>
+    <t>1010292807</t>
+  </si>
+  <si>
+    <t>1010372583</t>
+  </si>
+  <si>
+    <t>1010406872</t>
+  </si>
+  <si>
+    <t>1010417419</t>
+  </si>
+  <si>
+    <t>1010421228</t>
+  </si>
+  <si>
+    <t>1010424211</t>
+  </si>
+  <si>
+    <t>1010425563</t>
+  </si>
+  <si>
+    <t>1010487268</t>
+  </si>
+  <si>
+    <t>1010388483</t>
+  </si>
+  <si>
+    <t>1010498936</t>
+  </si>
+  <si>
+    <t>1010533492</t>
+  </si>
+  <si>
+    <t>1010535618</t>
+  </si>
+  <si>
+    <t>1010560738</t>
+  </si>
+  <si>
+    <t>1010575871</t>
   </si>
 </sst>
 </file>
@@ -48,18 +99,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -103,43 +155,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,222 +528,274 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>8995800075</v>
-      </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="6">
+        <v>8996300123</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>1010575871</v>
+      <c r="A5" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="6">
+        <v>1010540144</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6">
+        <v>1010863774</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6">
+        <v>1011127195</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6">
+        <v>1011230533</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="6">
+        <v>1011268892</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6">
+        <v>1011275340</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6">
+        <v>1011652137</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6">
+        <v>1012151049</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6">
+        <v>1020361041</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="6">
+        <v>1021551153</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/B_사업자_휴폐업_조회/File/사업자등록상태조회.xlsx
+++ b/B_사업자_휴폐업_조회/File/사업자등록상태조회.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE1D733-1097-4A79-A852-B3A98E41EACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E025E7-366E-438F-B9D2-B404429EAE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -185,6 +185,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,12 +534,12 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="10" customWidth="1"/>
@@ -541,7 +547,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -563,7 +569,7 @@
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>8996300123</v>
       </c>
       <c r="B3" s="1"/>
@@ -587,7 +593,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1010540144</v>
       </c>
       <c r="B6" s="1"/>
@@ -595,7 +601,7 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1010863774</v>
       </c>
       <c r="B7" s="1"/>
@@ -603,7 +609,7 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1011127195</v>
       </c>
       <c r="B8" s="1"/>
@@ -611,7 +617,7 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>1011230533</v>
       </c>
       <c r="B9" s="1"/>
@@ -619,7 +625,7 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1011268892</v>
       </c>
       <c r="B10" s="1"/>
@@ -627,7 +633,7 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>1011275340</v>
       </c>
       <c r="B11" s="1"/>
@@ -635,7 +641,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1011652137</v>
       </c>
       <c r="B12" s="1"/>
@@ -643,7 +649,7 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>1012151049</v>
       </c>
       <c r="B13" s="1"/>
@@ -651,7 +657,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>1020361041</v>
       </c>
       <c r="B14" s="1"/>
@@ -659,7 +665,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>1021551153</v>
       </c>
       <c r="B15" s="1"/>
